--- a/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C02-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2588984771793048</v>
+        <v>0.2545662515488009</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1980687075077489</v>
+        <v>0.1963571567634856</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1803313389676024</v>
+        <v>0.1863106231316951</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.4144855061918688</v>
+        <v>0.4124590503796263</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2828071001845927</v>
+        <v>0.2804042009688994</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2035821801684128</v>
+        <v>0.2055959807280331</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2099026714845287</v>
+        <v>0.205021142624253</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4320275342603518</v>
+        <v>0.4268931302708805</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2905934632431988</v>
+        <v>0.2836683967827525</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2177934296660961</v>
+        <v>0.2186413001742533</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2059359898905457</v>
+        <v>0.2073240626146995</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.4347784298276463</v>
+        <v>0.4361339033984731</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4027955549214864</v>
+        <v>0.3933279150816636</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3066004697820936</v>
+        <v>0.3091581795824681</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2942995516635195</v>
+        <v>0.2963918470589464</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.5345182876284547</v>
+        <v>0.5340311460117823</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4180417059180141</v>
+        <v>0.4197077056610055</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3216657581640097</v>
+        <v>0.323601985427299</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3227928027725738</v>
+        <v>0.3236601123667224</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.5252486427318255</v>
+        <v>0.5239780916106388</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3933062486513643</v>
+        <v>0.3866470810288354</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2940139868307566</v>
+        <v>0.2964473900983409</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2858458030257607</v>
+        <v>0.2888802389392968</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.510768089430098</v>
+        <v>0.5094306124518826</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.3373336249886438</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.3536309025379222</v>
+        <v>0.3536309025379221</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.2627447597161519</v>
@@ -833,7 +833,7 @@
         <v>0.3111764935677476</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.3608255282189242</v>
+        <v>0.3608255282189243</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2163083231564728</v>
+        <v>0.2108127880902549</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1887616688155285</v>
+        <v>0.1921255696086123</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2394341562157498</v>
+        <v>0.23787078110514</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3161353903914351</v>
+        <v>0.3119222582263843</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2256953994565568</v>
+        <v>0.2268641158174588</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2353615234279736</v>
+        <v>0.2347627041488971</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2913850651655427</v>
+        <v>0.2894605299886893</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3164462850436012</v>
+        <v>0.3172547786565021</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.2340903282450914</v>
+        <v>0.2339355624548841</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2263404861918814</v>
+        <v>0.2262627429811835</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2781513881255353</v>
+        <v>0.2780442688907665</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3294063639676679</v>
+        <v>0.3272304826470513</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3029198838321939</v>
+        <v>0.300991657773272</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2786091828046023</v>
+        <v>0.2856204770122008</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3325160096884516</v>
+        <v>0.334293126028873</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.4287557373452601</v>
+        <v>0.4200023669354172</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3092714802984977</v>
+        <v>0.3096831121970602</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3307531353259504</v>
+        <v>0.3257791908273416</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.385702847454837</v>
+        <v>0.3857371671563649</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3957854050111905</v>
+        <v>0.3935009485512536</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2934689039816282</v>
+        <v>0.2970738869867524</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2890067322659227</v>
+        <v>0.2899464807723743</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3498485336327959</v>
+        <v>0.3483938662805435</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.3985874327076002</v>
+        <v>0.3906076075587434</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2293644388400151</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.2319558058118455</v>
+        <v>0.2319558058118454</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2578219324103032</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2465705106965756</v>
+        <v>0.2491085670070834</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1962013596068148</v>
+        <v>0.1989899441147567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1853366862689969</v>
+        <v>0.1861875732810311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1902585976326562</v>
+        <v>0.1856231563960122</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2146339353174703</v>
+        <v>0.2111100476041396</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2498594008433837</v>
+        <v>0.2544406189219617</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2107446580165852</v>
+        <v>0.2029328860433302</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2244935481725169</v>
+        <v>0.2280214214013605</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2420832176266857</v>
+        <v>0.2408964870840579</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2414464470882057</v>
+        <v>0.2391603618780101</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2101940659534538</v>
+        <v>0.2065986575650118</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2166600337588726</v>
+        <v>0.2201721406447527</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.3680018761046169</v>
+        <v>0.3720578750162891</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2918151304886845</v>
+        <v>0.2968408104490808</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2789488055312447</v>
+        <v>0.2773555225003073</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2839658103543876</v>
+        <v>0.2779270296035163</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3164354270245492</v>
+        <v>0.3086643043453908</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3541757344276983</v>
+        <v>0.3543798006652412</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.306841984801452</v>
+        <v>0.3016078582564901</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3068475486310173</v>
+        <v>0.3063060276721851</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3194679925052463</v>
+        <v>0.3222188621675572</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3104653351643747</v>
+        <v>0.3155504417734903</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2774431961587202</v>
+        <v>0.2780563575454531</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2788828803809048</v>
+        <v>0.2803470252248127</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2505411070535914</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.4709440471891852</v>
+        <v>0.4709440471891851</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.292054516295974</v>
@@ -1105,7 +1105,7 @@
         <v>0.2512931660841732</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.4851010833794342</v>
+        <v>0.4851010833794343</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2474189955400922</v>
+        <v>0.2450767746630954</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2395420522338214</v>
+        <v>0.2404412954110927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2016523507183986</v>
+        <v>0.2060787602749447</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.4324492023267361</v>
+        <v>0.4386598459247882</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.238100210386327</v>
+        <v>0.2383118498508777</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2508793371929785</v>
+        <v>0.2552829075162377</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2050199671422362</v>
+        <v>0.2042868859505735</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4247507838289154</v>
+        <v>0.4193464135740251</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2544783079786367</v>
+        <v>0.2527447934766422</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2614944280081597</v>
+        <v>0.2578655538779548</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2185033145521478</v>
+        <v>0.2201969610590449</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4452417536520203</v>
+        <v>0.4442461202544634</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.356823171595909</v>
+        <v>0.3603621275007781</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3515567080426339</v>
+        <v>0.3492600752551394</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.297796214439038</v>
+        <v>0.3011541113922173</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5669952130538433</v>
+        <v>0.570556238973262</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3408843095415867</v>
+        <v>0.3365561510686892</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3565249558605065</v>
+        <v>0.3609488612325501</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.2973794582975586</v>
+        <v>0.2981149904173451</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.514900310885529</v>
+        <v>0.5161895870669165</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3327937559992877</v>
+        <v>0.3279405966466445</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3371551266432052</v>
+        <v>0.3336927834165792</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2871045395519956</v>
+        <v>0.2880668664539217</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.5240205211282587</v>
+        <v>0.5242086064986732</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.6856837457344233</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.868813703460342</v>
+        <v>0.8688137034603418</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1473966895788205</v>
+        <v>0.1530403786704631</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1700670137343412</v>
+        <v>0.1697425188799681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.5772459759492168</v>
+        <v>0.5755213790885831</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.8115709655888053</v>
+        <v>0.8108024460122011</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1766425227575673</v>
+        <v>0.1872059293664085</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2208289930698807</v>
+        <v>0.218703670021941</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.6125428894532063</v>
+        <v>0.6067230341979042</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.8435953427210343</v>
+        <v>0.8468322906660234</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1831739962715444</v>
+        <v>0.1859890310132472</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2148724661519023</v>
+        <v>0.2120329558513877</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.6307593842671039</v>
+        <v>0.6281430074631881</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.8422995110540911</v>
+        <v>0.8381571137574754</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2720277621088266</v>
+        <v>0.2721372797270341</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2926539820117087</v>
+        <v>0.2985277258506933</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7559846392456279</v>
+        <v>0.7517348868956731</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.8981274754360116</v>
+        <v>0.897417736998211</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.310089786454147</v>
+        <v>0.3156362259070468</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3534374465441604</v>
+        <v>0.3480546538985317</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.7590154502141733</v>
+        <v>0.7561243532153654</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9082097452219742</v>
+        <v>0.9049562966066443</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2687911203927601</v>
+        <v>0.2704439787199571</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3026131742263764</v>
+        <v>0.3000746356746306</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7438867881699006</v>
+        <v>0.7406256656339197</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.8937113580648097</v>
+        <v>0.89198114239154</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.2342158546896277</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.1764862776281363</v>
+        <v>0.1764862776281362</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.330356507848119</v>
@@ -1365,7 +1365,7 @@
         <v>0.3163323063439113</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1989387809312857</v>
+        <v>0.1989387809312858</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.3419565529911795</v>
@@ -1377,7 +1377,7 @@
         <v>0.2764289087545134</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.1877533943852663</v>
+        <v>0.1877533943852662</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2858377797943768</v>
+        <v>0.286791328028874</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2467919912623701</v>
+        <v>0.2519847054144596</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1806371340514216</v>
+        <v>0.1812222653319956</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1340207423970939</v>
+        <v>0.1345296888179547</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2684643215952526</v>
+        <v>0.2649336239101224</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2133110287319352</v>
+        <v>0.2135995073781</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.2582958179027715</v>
+        <v>0.2621514649075472</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1599303492614105</v>
+        <v>0.1612190103886315</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.299352862891572</v>
+        <v>0.2947058014285523</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2470583881342337</v>
+        <v>0.2474029807095314</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.234402049985204</v>
+        <v>0.2384762916130481</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1566392962241906</v>
+        <v>0.1589877824035016</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.4254115268686949</v>
+        <v>0.4316790711239428</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3737608515876439</v>
+        <v>0.3722418200586339</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2922519757510805</v>
+        <v>0.2907789795449827</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2220789015119673</v>
+        <v>0.2215474479524981</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.4017550531919146</v>
+        <v>0.3980632652285953</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3229679398683493</v>
+        <v>0.3278473145498033</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.384933056375631</v>
+        <v>0.3808332017734943</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2405752985013232</v>
+        <v>0.2445612405086819</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3912821242984577</v>
+        <v>0.3901523885646861</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3306239651027322</v>
+        <v>0.3291820607543062</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3173251401276356</v>
+        <v>0.317067510353911</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2172929511462272</v>
+        <v>0.2196441660625996</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3417268788966965</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.454937841823973</v>
+        <v>0.4549378418239731</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2597828015907018</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2261345855739053</v>
+        <v>0.2221293078291423</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2374243239923695</v>
+        <v>0.2405782019327227</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2761669177035634</v>
+        <v>0.2803202019241369</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.4179104252134004</v>
+        <v>0.4178521990623835</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.218624337789671</v>
+        <v>0.2183793579492964</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2815329747737269</v>
+        <v>0.2830410297362665</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2972001095382056</v>
+        <v>0.2976001665174395</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4213143448443026</v>
+        <v>0.4200980429213176</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2323080406412223</v>
+        <v>0.2341849131918849</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2716334009349893</v>
+        <v>0.2716705370045974</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3026485141935313</v>
+        <v>0.3012579445591345</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.4345156090067867</v>
+        <v>0.4299552048809791</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3082975697025568</v>
+        <v>0.3074640618140897</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3160914425211543</v>
+        <v>0.3133746973554103</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.3719149723003546</v>
+        <v>0.3750459537494644</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.506874245308452</v>
+        <v>0.5068764446872014</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2956111657787803</v>
+        <v>0.2948803608187694</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3612385630892426</v>
+        <v>0.3573920664208194</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3851470002983222</v>
+        <v>0.3866262656637806</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4919791006049362</v>
+        <v>0.4899336725491842</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2891823022675032</v>
+        <v>0.2887150753338755</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3270562652237408</v>
+        <v>0.3252205978778681</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.3649987641087846</v>
+        <v>0.3677689331649128</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.4869650335938042</v>
+        <v>0.4828104409260117</v>
       </c>
     </row>
     <row r="25">
@@ -1637,7 +1637,7 @@
         <v>0.5201190231238185</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.6897198452663966</v>
+        <v>0.6897198452663965</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.321778650839736</v>
@@ -1649,7 +1649,7 @@
         <v>0.5249829246052065</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.660930350650396</v>
+        <v>0.6609303506503957</v>
       </c>
     </row>
     <row r="26">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2614163285183909</v>
+        <v>0.2614328768324541</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.3779445165348353</v>
+        <v>0.3824475168344191</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.4890544768034831</v>
+        <v>0.4916495139625763</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5938013480106461</v>
+        <v>0.5978356288567735</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3012481814334349</v>
+        <v>0.3044036690733465</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.3391408901540035</v>
+        <v>0.3391982008672013</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.4799253806219473</v>
+        <v>0.477641066039088</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.6595984773195677</v>
+        <v>0.6594837844810904</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2931688764440905</v>
+        <v>0.2923196774524895</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.3697212434909466</v>
+        <v>0.3669907157411569</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.4958078960989638</v>
+        <v>0.4980653824507261</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.6379709435314835</v>
+        <v>0.6376837725368945</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.3443172734646652</v>
+        <v>0.3416171442841777</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.458556532107937</v>
+        <v>0.4582062630282174</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5695657759003572</v>
+        <v>0.5715211824468389</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.6670632356716407</v>
+        <v>0.6664800596188476</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3773355537560397</v>
+        <v>0.3849421127049772</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.4168924291470896</v>
+        <v>0.4124707727301947</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.5583885000537908</v>
+        <v>0.5568987052099299</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.716797908902822</v>
+        <v>0.7200890769672069</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3498074416502593</v>
+        <v>0.3508896817664041</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4219143504612546</v>
+        <v>0.4231144026104718</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.5510467693204826</v>
+        <v>0.5507441006351035</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.6841813983226055</v>
+        <v>0.6844248090286928</v>
       </c>
     </row>
     <row r="28">
@@ -1761,7 +1761,7 @@
         <v>0.3484740703217505</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.4715726327480701</v>
+        <v>0.47157263274807</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.2910457493136153</v>
@@ -1773,7 +1773,7 @@
         <v>0.37187151373609</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.4864402435980973</v>
+        <v>0.4864402435980972</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.2887349793938603</v>
@@ -1785,7 +1785,7 @@
         <v>0.3606020723469251</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.4792474951632352</v>
+        <v>0.4792474951632351</v>
       </c>
     </row>
     <row r="29">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2677525109718834</v>
+        <v>0.2661250448433759</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.2798144152817445</v>
+        <v>0.2783713029326867</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3301625166294197</v>
+        <v>0.3316356184361788</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.4510162393338584</v>
+        <v>0.4521513841531291</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2746177180439938</v>
+        <v>0.2739993273582496</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2953121400022042</v>
+        <v>0.2953803912842574</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3540638477755765</v>
+        <v>0.3532576810720362</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4720364379870138</v>
+        <v>0.4704223073461752</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2751616476731209</v>
+        <v>0.2765391479678251</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2933573524743565</v>
+        <v>0.2924374082411958</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.348345396714963</v>
+        <v>0.3469013331659558</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.4680045221935678</v>
+        <v>0.4670705891539168</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3047898823876637</v>
+        <v>0.3045224584705804</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.3134524769298308</v>
+        <v>0.3133075343370686</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.3686921277813537</v>
+        <v>0.3683103137927002</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4893591295586825</v>
+        <v>0.4912570417859246</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3077489944745603</v>
+        <v>0.3078592766871914</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.3287272208725144</v>
+        <v>0.32791853023361</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3907604812116258</v>
+        <v>0.389401699298678</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.5008690912610059</v>
+        <v>0.5004800340746792</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3011198085807689</v>
+        <v>0.3014732337399176</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.317180932219856</v>
+        <v>0.3163231355211248</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3744766992365898</v>
+        <v>0.37336181333963</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4920387784287189</v>
+        <v>0.4909618351721852</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>49577</v>
+        <v>48748</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>49628</v>
+        <v>49199</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>44220</v>
+        <v>45687</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>124726</v>
+        <v>124116</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>56907</v>
+        <v>56423</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>51144</v>
+        <v>51650</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>51706</v>
+        <v>50504</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>133697</v>
+        <v>132108</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>114121</v>
+        <v>111401</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>109284</v>
+        <v>109710</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>101228</v>
+        <v>101910</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>265380</v>
+        <v>266208</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>77133</v>
+        <v>75320</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>76822</v>
+        <v>77463</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>72168</v>
+        <v>72681</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>160846</v>
+        <v>160699</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>84119</v>
+        <v>84454</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>80809</v>
+        <v>81295</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>79515</v>
+        <v>79728</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>162546</v>
+        <v>162152</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>154458</v>
+        <v>151842</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>147530</v>
+        <v>148751</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>140508</v>
+        <v>141999</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>311763</v>
+        <v>310947</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>88634</v>
+        <v>86382</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>76502</v>
+        <v>77865</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>86954</v>
+        <v>86386</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>163767</v>
+        <v>161584</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>99356</v>
+        <v>99870</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>103047</v>
+        <v>102785</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>114610</v>
+        <v>113853</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>168227</v>
+        <v>168656</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>198971</v>
+        <v>198840</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>190829</v>
+        <v>190763</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>210419</v>
+        <v>210338</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>345758</v>
+        <v>343474</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>124123</v>
+        <v>123333</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>112915</v>
+        <v>115757</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>120758</v>
+        <v>121404</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>222107</v>
+        <v>217573</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>136147</v>
+        <v>136329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>144811</v>
+        <v>142634</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>151707</v>
+        <v>151721</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>210404</v>
+        <v>209190</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>249442</v>
+        <v>252506</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>243663</v>
+        <v>244455</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>264658</v>
+        <v>263557</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>418373</v>
+        <v>409997</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>58323</v>
+        <v>58923</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>57423</v>
+        <v>58239</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>53842</v>
+        <v>54089</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>56946</v>
+        <v>55559</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>61988</v>
+        <v>60970</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>82142</v>
+        <v>83648</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>64860</v>
+        <v>62455</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>76711</v>
+        <v>77916</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>127177</v>
+        <v>126553</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>150041</v>
+        <v>148620</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>125753</v>
+        <v>123602</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>138882</v>
+        <v>141133</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>87046</v>
+        <v>88005</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>85406</v>
+        <v>86877</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>81037</v>
+        <v>80574</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>84994</v>
+        <v>83186</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>91388</v>
+        <v>89144</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>116436</v>
+        <v>116503</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>94435</v>
+        <v>92824</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>104851</v>
+        <v>104666</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>167830</v>
+        <v>169275</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>192931</v>
+        <v>196091</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>165986</v>
+        <v>166353</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>178768</v>
+        <v>179706</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>66192</v>
+        <v>65566</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>74995</v>
+        <v>75277</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>66555</v>
+        <v>68016</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>160325</v>
+        <v>162628</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>71319</v>
+        <v>71383</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>86005</v>
+        <v>87515</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>71523</v>
+        <v>71268</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>178231</v>
+        <v>175963</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>144306</v>
+        <v>143323</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>171512</v>
+        <v>169132</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>148344</v>
+        <v>149493</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>351897</v>
+        <v>351110</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>95461</v>
+        <v>96408</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>110064</v>
+        <v>109345</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>98287</v>
+        <v>99395</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>210207</v>
+        <v>211527</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>102106</v>
+        <v>100810</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>122222</v>
+        <v>123739</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>103744</v>
+        <v>104001</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>216059</v>
+        <v>216600</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>188716</v>
+        <v>185964</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>221137</v>
+        <v>218866</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>194918</v>
+        <v>195571</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>414160</v>
+        <v>414309</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>25098</v>
+        <v>26059</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>32663</v>
+        <v>32600</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>68820</v>
+        <v>68615</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>153630</v>
+        <v>153484</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>30719</v>
+        <v>32556</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>42969</v>
+        <v>42556</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>89125</v>
+        <v>88278</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>185424</v>
+        <v>186135</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>63046</v>
+        <v>64014</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>83078</v>
+        <v>81980</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>166976</v>
+        <v>166283</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>344586</v>
+        <v>342891</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>46320</v>
+        <v>46339</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>56207</v>
+        <v>57335</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>90130</v>
+        <v>89623</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>170015</v>
+        <v>169880</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>53926</v>
+        <v>54891</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>68773</v>
+        <v>67725</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>110437</v>
+        <v>110016</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>199626</v>
+        <v>198911</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>92514</v>
+        <v>93082</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>117002</v>
+        <v>116021</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>196923</v>
+        <v>196060</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>365618</v>
+        <v>364910</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>54101</v>
+        <v>54281</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>61691</v>
+        <v>62989</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>42200</v>
+        <v>42336</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>33470</v>
+        <v>33597</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>54625</v>
+        <v>53906</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>56491</v>
+        <v>56568</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>63834</v>
+        <v>64787</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>40232</v>
+        <v>40556</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>117568</v>
+        <v>115743</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>127186</v>
+        <v>127364</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>112689</v>
+        <v>114648</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>78522</v>
+        <v>79700</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>80518</v>
+        <v>81704</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>93430</v>
+        <v>93050</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>68274</v>
+        <v>67930</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>55461</v>
+        <v>55328</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>81746</v>
+        <v>80994</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>85532</v>
+        <v>86824</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>95131</v>
+        <v>94118</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>60519</v>
+        <v>61522</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>153673</v>
+        <v>153229</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>170206</v>
+        <v>169464</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>152555</v>
+        <v>152431</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>108928</v>
+        <v>110106</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>105000</v>
+        <v>103140</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>136300</v>
+        <v>138111</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>122151</v>
+        <v>123988</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>291965</v>
+        <v>291924</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>117919</v>
+        <v>117787</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>176236</v>
+        <v>177180</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>144752</v>
+        <v>144946</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>312357</v>
+        <v>311455</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>233166</v>
+        <v>235050</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>325978</v>
+        <v>326022</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>281269</v>
+        <v>279976</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>625710</v>
+        <v>619143</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>143150</v>
+        <v>142763</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>181461</v>
+        <v>179902</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>164501</v>
+        <v>165885</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>354118</v>
+        <v>354120</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>159443</v>
+        <v>159049</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>226131</v>
+        <v>223723</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>187586</v>
+        <v>188307</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>364746</v>
+        <v>363230</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>290250</v>
+        <v>289781</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>392489</v>
+        <v>390286</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>339215</v>
+        <v>341789</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>701238</v>
+        <v>695256</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>137388</v>
+        <v>137397</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>239581</v>
+        <v>242435</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>313118</v>
+        <v>314780</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>457851</v>
+        <v>460961</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>178183</v>
+        <v>180049</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>238177</v>
+        <v>238217</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>331792</v>
+        <v>330213</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>534477</v>
+        <v>534384</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>327479</v>
+        <v>326530</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>494021</v>
+        <v>490373</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>660214</v>
+        <v>663220</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1008860</v>
+        <v>1008406</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>180957</v>
+        <v>179538</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>290681</v>
+        <v>290459</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>364666</v>
+        <v>365918</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>514339</v>
+        <v>513889</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>223187</v>
+        <v>227686</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>292781</v>
+        <v>289676</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>386037</v>
+        <v>385007</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>580826</v>
+        <v>583493</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>390746</v>
+        <v>391955</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>563762</v>
+        <v>565365</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>733770</v>
+        <v>733367</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1081935</v>
+        <v>1082320</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>657263</v>
+        <v>653268</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>814709</v>
+        <v>810508</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>879663</v>
+        <v>883588</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>1532421</v>
+        <v>1536278</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>751906</v>
+        <v>750213</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>929732</v>
+        <v>929947</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1015213</v>
+        <v>1012901</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>1711344</v>
+        <v>1705492</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1428846</v>
+        <v>1435999</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1777719</v>
+        <v>1772144</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1926924</v>
+        <v>1918936</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>3286868</v>
+        <v>3280309</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>748181</v>
+        <v>747524</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>912650</v>
+        <v>912228</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>982319</v>
+        <v>981301</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1662699</v>
+        <v>1669147</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>842620</v>
+        <v>842921</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1034933</v>
+        <v>1032387</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1120433</v>
+        <v>1116537</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>1815875</v>
+        <v>1814464</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1563640</v>
+        <v>1565475</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>1922087</v>
+        <v>1916889</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2071473</v>
+        <v>2065306</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>3455665</v>
+        <v>3448101</v>
       </c>
     </row>
     <row r="40">
